--- a/jpcore-r4/feature/txcache-test-build/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/txcache-test-build/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -737,7 +737,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.dummy.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>
